--- a/renders/Performance Estimates.xlsx
+++ b/renders/Performance Estimates.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11835"/>
   </bookViews>
   <sheets>
-    <sheet name="Full Hall" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Lion Close" sheetId="4" r:id="rId1"/>
+    <sheet name="Full Hall" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Stage 1</t>
   </si>
@@ -28,6 +27,36 @@
   </si>
   <si>
     <t>Baseline</t>
+  </si>
+  <si>
+    <t>Time (ms)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Diffuse Map Alone</t>
+  </si>
+  <si>
+    <t>Specular Map Alone</t>
+  </si>
+  <si>
+    <t>Mask Alone</t>
+  </si>
+  <si>
+    <t>Bump Map Alone</t>
+  </si>
+  <si>
+    <t>All Textures</t>
+  </si>
+  <si>
+    <t>All Texture Bloom</t>
+  </si>
+  <si>
+    <t>Toon Shading</t>
+  </si>
+  <si>
+    <t>Scissor Test (All Textures)</t>
   </si>
 </sst>
 </file>
@@ -72,6 +101,966 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lion Closeup Metrics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33294974215357931"/>
+          <c:y val="3.4188034188034191E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7710437424566213E-2"/>
+          <c:y val="3.4407093344101219E-2"/>
+          <c:w val="0.77013919004352305"/>
+          <c:h val="0.87058937344370413"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lion Close'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stage 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lion Close'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diffuse Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specular Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mask Alone</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bump Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>All Textures</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Scissor Test (All Textures)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Toon Shading</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>All Texture Bloom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lion Close'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lion Close'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stage 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lion Close'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diffuse Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specular Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mask Alone</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bump Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>All Textures</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Scissor Test (All Textures)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Toon Shading</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>All Texture Bloom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lion Close'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lion Close'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stage 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lion Close'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diffuse Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specular Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mask Alone</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bump Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>All Textures</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Scissor Test (All Textures)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Toon Shading</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>All Texture Bloom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lion Close'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lion Close'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lion Close'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diffuse Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specular Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mask Alone</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bump Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>All Textures</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Scissor Test (All Textures)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Toon Shading</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>All Texture Bloom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lion Close'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>13.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.297000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.800000000000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="62334464"/>
+        <c:axId val="62337024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="62334464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62337024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62337024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62334464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Full Hall</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Stage Timing</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full Hall'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stage 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full Hall'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diffuse Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specular Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mask Alone</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bump Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>All Textures</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Toon Shading</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Scissor Test (All Textures)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>All Texture Bloom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full Hall'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full Hall'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stage 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full Hall'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diffuse Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specular Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mask Alone</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bump Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>All Textures</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Toon Shading</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Scissor Test (All Textures)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>All Texture Bloom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full Hall'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full Hall'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stage 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full Hall'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diffuse Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specular Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mask Alone</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bump Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>All Textures</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Toon Shading</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Scissor Test (All Textures)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>All Texture Bloom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full Hall'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.706999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full Hall'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full Hall'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diffuse Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specular Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mask Alone</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bump Map Alone</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>All Textures</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Toon Shading</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Scissor Test (All Textures)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>All Texture Bloom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full Hall'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16.337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.687999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.208000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.236999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="87900928"/>
+        <c:axId val="87902464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="87900928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87902464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="87902464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87900928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,15 +1348,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
@@ -376,7 +1365,10 @@
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -386,46 +1378,378 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>4.5999999999999996</v>
+        <v>2.87</v>
       </c>
       <c r="C2">
-        <v>7.55</v>
+        <v>10.37</v>
       </c>
       <c r="D2">
-        <v>0.2</v>
+        <v>0.42</v>
+      </c>
+      <c r="E2">
+        <f>D2+C2+B2</f>
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>11.75</v>
+      </c>
+      <c r="D3">
+        <v>0.3</v>
+      </c>
+      <c r="E3">
+        <f>D3+C3+B3</f>
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2.93</v>
+      </c>
+      <c r="C4">
+        <v>11.07</v>
+      </c>
+      <c r="D4">
+        <v>0.42</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E10" si="0">D4+C4+B4</f>
+        <v>14.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2.86</v>
+      </c>
+      <c r="C5">
+        <v>10.37</v>
+      </c>
+      <c r="D5">
+        <v>0.42</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>13.649999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>3.04</v>
+      </c>
+      <c r="C6">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="D6">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>13.297000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>3.09</v>
+      </c>
+      <c r="C7">
+        <v>11.93</v>
+      </c>
+      <c r="D7">
+        <v>0.32</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>3.8</v>
+      </c>
+      <c r="C8">
+        <v>1.5</v>
+      </c>
+      <c r="D8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E8">
+        <f>D8+C8+B8</f>
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>3.1</v>
+      </c>
+      <c r="C9">
+        <v>11.9</v>
+      </c>
+      <c r="D9">
+        <v>0.54</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>15.540000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>3.23</v>
+      </c>
+      <c r="C10">
+        <v>11.9</v>
+      </c>
+      <c r="D10">
+        <v>74.67</v>
+      </c>
+      <c r="E10">
+        <f>D10+C10+B10</f>
+        <v>89.800000000000011</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>5.87</v>
+      </c>
+      <c r="C2">
+        <v>10.18</v>
+      </c>
+      <c r="D2">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="E2">
+        <f>D2+C2+B2</f>
+        <v>16.337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>6.02</v>
+      </c>
+      <c r="C3">
+        <v>11.35</v>
+      </c>
+      <c r="D3">
+        <v>0.318</v>
+      </c>
+      <c r="E3">
+        <f>D3+C3+B3</f>
+        <v>17.687999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>5.94</v>
+      </c>
+      <c r="C4">
+        <v>10.85</v>
+      </c>
+      <c r="D4">
+        <v>0.3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E10" si="0">D4+C4+B4</f>
+        <v>17.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>5.79</v>
+      </c>
+      <c r="C5">
+        <v>10.15</v>
+      </c>
+      <c r="D5">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>16.208000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5.83</v>
+      </c>
+      <c r="C6">
+        <v>10.09</v>
+      </c>
+      <c r="D6">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>16.192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>7.53</v>
+      </c>
+      <c r="C7">
+        <v>11.95</v>
+      </c>
+      <c r="D7">
+        <v>0.34</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>19.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>7.59</v>
+      </c>
+      <c r="C8">
+        <v>11.97</v>
+      </c>
+      <c r="D8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E8">
+        <f>D8+C8+B8</f>
+        <v>20.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>7.56</v>
+      </c>
+      <c r="C9">
+        <v>5.19</v>
+      </c>
+      <c r="D9">
+        <v>0.27</v>
+      </c>
+      <c r="E9">
+        <f>D9+C9+B9</f>
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>7.56</v>
+      </c>
+      <c r="C10">
+        <v>11.97</v>
+      </c>
+      <c r="D10">
+        <v>74.706999999999994</v>
+      </c>
+      <c r="E10">
+        <f>D10+C10+B10</f>
+        <v>94.236999999999995</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>